--- a/docs/Error_Report.xlsx
+++ b/docs/Error_Report.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dApp-Trustless-Work\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2DBD35-18F8-401E-9DD9-329FF95839C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3EDA32-51D9-48F2-BA12-AB1501E6602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5EFA593D-DFF0-4FC3-8FD1-D0F873A0CCA8}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{5EFA593D-DFF0-4FC3-8FD1-D0F873A0CCA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -192,13 +193,115 @@
   </si>
   <si>
     <t>Por: Daniel Coto</t>
+  </si>
+  <si>
+    <t>By JosueBrenes</t>
+  </si>
+  <si>
+    <t>1) Go to Initialize Escrow
+2) Click on the PC icon located on the form.</t>
+  </si>
+  <si>
+    <t>The text and icons in the UI appear inverted, indicating an issue with orientation or rendering.</t>
+  </si>
+  <si>
+    <t>https://dapp.trustlesswork.com/dashboard/escrow/initialize-escrow</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/48b38f9860984344be1a4bc90f496354?sid=c8fdc5d0-f2cd-42b2-913f-3adfd58c5306</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/fee0183c31014d3ea551b49cbbda1913</t>
+  </si>
+  <si>
+    <t>The escrow process gets stuck on the second step when trying to start it.</t>
+  </si>
+  <si>
+    <t>https://dapp.trustlesswork.com/dashboard/escrow/my-escrows</t>
+  </si>
+  <si>
+    <t>It only happens when an escrow is created and we want to create another</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/03ed394385f34575a82beb06e84809e0?sid=639103d2-98c2-44ee-8e7a-ea6aa0ba20e4</t>
+  </si>
+  <si>
+    <t>The system allows funding the escrow even if the value 0 is entered.</t>
+  </si>
+  <si>
+    <t>When the escrow is completed, the amount allocated to the platform is incorrect. It should be $0.05 instead of $5.00.</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/e664a5ba79854259b2f0f5a9600fbab3?sid=11266796-9182-4a06-bb3c-5ed20f41702b</t>
+  </si>
+  <si>
+    <t>Extension Wallet</t>
+  </si>
+  <si>
+    <t>The platform receives the amount of fee in the wallet and not the amount</t>
+  </si>
+  <si>
+    <t>I couldn't record video because I already had other money in the wallets and it doesn't display well but you have to check that because it gives the wrong amount</t>
+  </si>
+  <si>
+    <t>1) Go to your wallet
+2) View the amount</t>
+  </si>
+  <si>
+    <t>The service provider receives the wrong amount due to the correct calculation</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/23ce1e4c887b44f1a182f83fd8cb05c3?sid=509b4db1-42df-41a6-bc60-e7dbc185f164</t>
+  </si>
+  <si>
+    <t>When the dispute is resolved in the modal, change NAME and NAME to the users name</t>
+  </si>
+  <si>
+    <t>1) Go to Escrow
+2) Click on "Dispute Resolver"
+3) Click in escrow in dispute
+4)  View the modal</t>
+  </si>
+  <si>
+    <t>1) Go to Escrow
+2) Click on "Release Signer"
+3) Click on payment
+4) Sign the transaction and view the modal</t>
+  </si>
+  <si>
+    <t>1) Go to Initialize Escrow
+2) Click on the recently created escrow
+3) Click on the "Fund Escrow" button
+4) Enter amount 0 and click the "Fund Escrow" button</t>
+  </si>
+  <si>
+    <t>1) Go to Initialize Escrow
+2) When the escrow is created, touch the "Create Escrow" button</t>
+  </si>
+  <si>
+    <t>https://www.loom.com/share/3eb22fb3c2124968a4ac7a3bc47b8aee?sid=2a8e59a5-947b-4694-bc50-b28df61a5d9b</t>
+  </si>
+  <si>
+    <t>In the textfield you can add letters but it cannot be sent but you can add a validation that does not allow that</t>
+  </si>
+  <si>
+    <t>1) Go to Escrow
+2) Click on "Dispute Resolver"
+3) Click in escrow in dispute
+4)  Write in the textfield</t>
+  </si>
+  <si>
+    <t>This case happens in all textfields that should only contain numbers.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -259,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -277,7 +386,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,11 +736,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915202B4-F484-43A3-92E7-1BE8AC8D18D7}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -635,12 +754,12 @@
     <col min="10" max="10" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="57" customHeight="1">
+    <row r="2" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="62.25" customHeight="1">
+    <row r="4" spans="2:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -692,7 +811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="120">
+    <row r="5" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -718,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="105">
+    <row r="6" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -745,7 +864,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" ht="115.5" customHeight="1">
+    <row r="7" spans="2:11" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -755,7 +874,7 @@
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -771,13 +890,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="33.75" customHeight="1"/>
-    <row r="9" spans="2:11" ht="68.25" customHeight="1">
+    <row r="8" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="75">
+    <row r="11" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -829,7 +948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="120">
+    <row r="12" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>2</v>
       </c>
@@ -855,7 +974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="120">
+    <row r="13" spans="2:11" ht="120" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <v>3</v>
       </c>
@@ -881,7 +1000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="135">
+    <row r="14" spans="2:11" ht="135" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>4</v>
       </c>
@@ -891,7 +1010,7 @@
       <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
@@ -929,4 +1048,292 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId17"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59AB7DB-E1CB-4B2B-A098-88FA32972D68}">
+  <dimension ref="C4:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{66AFD02E-8784-4CF1-9AA3-2FE591599D8A}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{2AD13578-8BE2-4396-B500-5CBD47EF29AC}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{6BFB6480-4E9E-4773-B0C9-A55BC47B5203}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{74B2915C-4CE5-427D-8996-51B00FEECB02}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{31D3E82E-16AD-40D4-84DB-AE323BCB5E24}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{1AB62476-CC9E-434D-BB86-F314384CA24E}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{77F27DB8-48C5-44BA-9B84-BE339AC4ED7B}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{0202F25F-546E-4141-A28F-8E30612C964F}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{9105209C-B42B-424C-B0D9-77F180455288}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{FFC61670-6DF1-4863-A6B1-F93CE5912BDE}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{3652877D-EFA0-4BE7-9596-367D300FFBFF}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{459F259E-CA74-46F8-8BD1-270409322905}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>